--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはDiagnosticReportリソースに対して、データを送受信するための細菌検査レポートの制約と拡張を定めたものである。</t>
+    <t>このプロファイルはDiagnosticReportリソースに対して、データを送受信するための微生物学検査レポートの制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -589,13 +589,19 @@
     <t>サービスカテゴリー。【詳細参照】</t>
   </si>
   <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
-  </si>
-  <si>
-    <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+    <t>レポートを作成した臨床分野、部門、または診断サービスを分類するコード（例：心臓病学、生化学、血液学、MRI）。これは、検索、並べ替え、表示に使用されます。 / A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>さまざまな分類スキームを使用して、複数のカテゴリが許可されています。粒度のレベルは、値セットのカテゴリの概念によって定義されます。DiagnosticReport.codeのメタデータおよび/または用語階層を使用して、より微細粒度フィルタリングを実行できます。 / Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -614,16 +620,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology</t>
-  </si>
-  <si>
-    <t>radiology</t>
+    <t>DiagnosticReport.category:microbiology</t>
+  </si>
+  <si>
+    <t>microbiology</t>
   </si>
   <si>
     <t>サービスカテゴリ / Service category</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービスを分類するコード（例：心臓病学、生化学、血液学、MRI）。これは、検索、並べ替え、表示に使用されます。 / A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
@@ -631,16 +634,10 @@
 【JP Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>診断サービスセクションのコード。 / Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:radiology.id</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.id</t>
   </si>
   <si>
     <t>DiagnosticReport.category.id</t>
@@ -662,7 +659,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.extension</t>
+    <t>DiagnosticReport.category:microbiology.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.category.extension</t>
@@ -681,7 +678,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding</t>
+    <t>DiagnosticReport.category:microbiology.coding</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding</t>
@@ -712,19 +709,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.id</t>
+    <t>DiagnosticReport.category:microbiology.coding.id</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.id</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.extension</t>
+    <t>DiagnosticReport.category:microbiology.coding.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.system</t>
+    <t>DiagnosticReport.category:microbiology.coding.system</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.system</t>
@@ -754,7 +751,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.version</t>
+    <t>DiagnosticReport.category:microbiology.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.version</t>
@@ -778,7 +775,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.code</t>
+    <t>DiagnosticReport.category:microbiology.coding.code</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.code</t>
@@ -793,7 +790,7 @@
     <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>LP29693-6</t>
+    <t>LP7819-8</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -805,7 +802,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.display</t>
+    <t>DiagnosticReport.category:microbiology.coding.display</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.display</t>
@@ -820,6 +817,9 @@
     <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
+    <t>微生物検査</t>
+  </si>
+  <si>
     <t>Coding.display</t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.coding.userSelected</t>
+    <t>DiagnosticReport.category:microbiology.coding.userSelected</t>
   </si>
   <si>
     <t>DiagnosticReport.category.coding.userSelected</t>
@@ -860,7 +860,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:radiology.text</t>
+    <t>DiagnosticReport.category:microbiology.text</t>
   </si>
   <si>
     <t>DiagnosticReport.category.text</t>
@@ -1141,7 +1141,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Microbiology)
 </t>
   </si>
   <si>
@@ -1644,9 +1644,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.98046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3242,24 +3242,26 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>179</v>
@@ -3280,24 +3282,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>179</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>180</v>
@@ -3322,13 +3324,13 @@
         <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3354,13 +3356,11 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3396,21 +3396,21 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3433,13 +3433,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3490,7 +3490,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3511,7 +3511,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3519,10 +3519,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3551,7 +3551,7 @@
         <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>139</v>
@@ -3592,19 +3592,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3625,7 +3625,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3659,19 +3659,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3720,7 +3720,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3738,10 +3738,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3749,10 +3749,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3775,13 +3775,13 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3832,7 +3832,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3853,7 +3853,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3893,7 +3893,7 @@
         <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>139</v>
@@ -3934,19 +3934,19 @@
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3967,7 +3967,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4004,16 +4004,16 @@
         <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4023,46 +4023,46 @@
         <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4080,10 +4080,10 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4117,16 +4117,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4176,7 +4176,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4194,10 +4194,10 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4205,10 +4205,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4234,14 +4234,14 @@
         <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4251,46 +4251,46 @@
         <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4308,10 +4308,10 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4345,17 +4345,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4365,7 +4365,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>81</v>
@@ -4575,7 +4575,7 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>273</v>
@@ -5963,13 +5963,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6020,7 +6020,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6041,7 +6041,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6081,7 +6081,7 @@
         <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>139</v>
@@ -6134,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6155,7 +6155,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6305,7 +6305,7 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>389</v>
@@ -6533,7 +6533,7 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>401</v>
@@ -6682,7 +6682,7 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Y44" t="s" s="2">
         <v>410</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -4020,10 +4020,10 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>81</v>
@@ -4248,10 +4248,10 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -519,12 +519,10 @@
 </t>
   </si>
   <si>
-    <t>元になった検査や診断の依頼。【詳細参照】</t>
-  </si>
-  <si>
-    <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.
-通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また 1つの検査依頼に対して複数のレポートが作成される場合もあることに注意。
-【JP Core仕様】ServiceRequestリソースを参照(ObservationLabResultと同様）</t>
+    <t>依頼されたサービス（検査や診断など）に関する詳細情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
   </si>
   <si>
     <t>通常、１結果ごとに１つの検査依頼があるが、状況によっては、複数の検査要求に対して１レポートがある場合がある。また 1つの検査依頼に対して複数のレポートが作成される場合もあることに注意。</t>
@@ -545,10 +543,7 @@
     <t>DiagnosticReport.status</t>
   </si>
   <si>
-    <t>登録|部分的|予備|ファイナル + / registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>診断レポートのステータス。</t>
+    <t>診断レポートのステータス</t>
   </si>
   <si>
     <t>診断サービスは、暫定/不完全なレポートを日常的に発行し、以前にリリースされたレポートを撤回することもあります。 / Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
@@ -586,10 +581,10 @@
 </t>
   </si>
   <si>
-    <t>サービスカテゴリー。【詳細参照】</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービスを分類するコード（例：心臓病学、生化学、血液学、MRI）。これは、検索、並べ替え、表示に使用されます。 / A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード</t>
   </si>
   <si>
     <t>さまざまな分類スキームを使用して、複数のカテゴリが許可されています。粒度のレベルは、値セットのカテゴリの概念によって定義されます。DiagnosticReport.codeのメタデータおよび/または用語階層を使用して、より微細粒度フィルタリングを実行できます。 / Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
@@ -627,6 +622,9 @@
   </si>
   <si>
     <t>サービスカテゴリ / Service category</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービスを分類するコード（例：心臓病学、生化学、血液学、MRI）。これは、検索、並べ替え、表示に使用されます。 / A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
@@ -894,10 +892,10 @@
 </t>
   </si>
   <si>
-    <t>この診断レポートの名前/コード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートを説明するコードまたは名前。</t>
+    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを説明するコードまたは名前</t>
   </si>
   <si>
     <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。</t>
@@ -932,10 +930,10 @@
 </t>
   </si>
   <si>
-    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの対象患者に関する情報。</t>
+    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの対象患者に関する情報</t>
   </si>
   <si>
     <t>レポートの対象、通常、Patientリソースへの参照。ただし、他のさまざまなソースから収集された検体を対象とすることもある。参照は内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
@@ -967,10 +965,10 @@
 </t>
   </si>
   <si>
-    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報。</t>
+    <t>直近の細菌検査に直結するEncounterリソースを参照【詳細参照】</t>
+  </si>
+  <si>
+    <t>直近の細菌検査に直結するEncounterリソースを参照</t>
   </si>
   <si>
     <t>受診、入院、診察など。通常、イベントが発生したEncounterであるが、一部のイベントは、Encounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
@@ -998,14 +996,14 @@
 Effective TimeOccurrence</t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの作成日時。</t>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>検体採取日時（effectivePeriod は未使用）【詳細参照】</t>
+  </si>
+  <si>
+    <t>検体採取日時（effectivePeriod は未使用）</t>
   </si>
   <si>
     <t>診断手順が患者に対して実行された場合、これは実施された時間である。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。</t>
@@ -1037,7 +1035,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンが作成された日時。【詳細参照】</t>
+    <t>最新のレポート確定日【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンの診断レポートが医療者に提供/確定された日時。</t>
@@ -1069,10 +1067,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに責任をもつ診断サービス（部門）/担当者。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス（部門）/担当者に関する情報。</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする</t>
   </si>
   <si>
     <t>必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。</t>
@@ -1100,10 +1098,14 @@
 Reported by</t>
   </si>
   <si>
-    <t>結果の一次解釈者。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。</t>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）【詳細参照】</t>
+  </si>
+  <si>
+    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）</t>
   </si>
   <si>
     <t>診断レポートに責任を持つもの(performer)とは異なる場合がある。</t>
@@ -1119,10 +1121,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートのもとになった検体。【詳細参照】</t>
-  </si>
-  <si>
-    <t>この診断レポートのもとになった検体に関する詳細情報。</t>
+    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートのもとになった検体に関する情報</t>
   </si>
   <si>
     <t>検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。</t>
@@ -1145,10 +1147,10 @@
 </t>
   </si>
   <si>
-    <t>検査結果。Observationsリソースが参照される。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの一部となるObservationsに関する情報。</t>
+    <t>該当するObservationを設定する【詳細参照】</t>
+  </si>
+  <si>
+    <t>該当するObservationを設定する</t>
   </si>
   <si>
     <t>Observationsは階層構造を持てる。</t>
@@ -1170,10 +1172,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用</t>
   </si>
   <si>
     <t>診断的精査中に実施された画像検査の詳細情報へのひとつ/複数のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査だが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
@@ -1193,10 +1195,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディア。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけられたメディアに関する情報。</t>
+    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報</t>
   </si>
   <si>
     <t>通常は画像。診断プロセス中に作成され、患者から直接取得されたもの、あるいは調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
@@ -1273,10 +1275,7 @@
 </t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈/インプレッション）。【詳細参照】</t>
-  </si>
-  <si>
-    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈/インプレッション）。</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）、 原則未使用であるがコメントを記載してもよい</t>
   </si>
   <si>
     <t>基本的な結果データの中で失われない結論を提供できる必要があります。 / Need to be able to provide a conclusion that is not lost among the basic result data.</t>
@@ -1291,10 +1290,10 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの要約的な結論（解釈/インプレッション）を表す1つ以上のコード。</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード、原則未使用【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード、原則未使用</t>
   </si>
   <si>
     <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、独自の構造を提供する必要がある。</t>
@@ -1316,10 +1315,10 @@
 </t>
   </si>
   <si>
-    <t>発行されたレポート全体。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）、原則未使用【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）、原則未使用</t>
   </si>
   <si>
     <t>複数のフォーマットが許可されるが、それらは意味的に同等である必要がある。「application / pdf」がこのコンテキストで最も信頼でき相互運用可能なものとして推奨される。</t>
@@ -3099,11 +3098,11 @@
         <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3128,13 +3127,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3167,28 +3166,28 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3207,16 +3206,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3242,29 +3241,29 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3282,27 +3281,27 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="D15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3321,13 +3320,13 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>196</v>
@@ -3356,7 +3355,7 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
@@ -3378,7 +3377,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3396,13 +3395,13 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="16">
@@ -3601,7 +3600,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>210</v>
@@ -3943,7 +3942,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>210</v>
@@ -4691,7 +4690,7 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>282</v>
@@ -5385,16 +5384,16 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>340</v>
@@ -5464,7 +5463,7 @@
         <v>341</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>343</v>
@@ -5475,10 +5474,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5501,19 +5500,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5562,7 +5561,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5580,7 +5579,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>300</v>
@@ -5591,14 +5590,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5617,19 +5616,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5678,7 +5677,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5696,10 +5695,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5707,10 +5706,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5733,16 +5732,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5792,7 +5791,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5813,7 +5812,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5821,14 +5820,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5847,19 +5846,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5908,7 +5907,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5926,10 +5925,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -5937,10 +5936,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6049,10 +6048,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6163,14 +6162,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6192,10 +6191,10 @@
         <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>139</v>
@@ -6250,7 +6249,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6279,10 +6278,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6308,16 +6307,16 @@
         <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6366,7 +6365,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6387,7 +6386,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6395,10 +6394,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6421,13 +6420,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6478,7 +6477,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>90</v>
@@ -6499,7 +6498,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6507,14 +6506,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6536,7 +6535,7 @@
         <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>402</v>
@@ -6592,7 +6591,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6647,7 +6646,7 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>407</v>
@@ -6682,7 +6681,7 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y44" t="s" s="2">
         <v>410</v>
